--- a/DM/maintain/monitor/Focus_Change_Log.xlsx
+++ b/DM/maintain/monitor/Focus_Change_Log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10416" windowWidth="19416" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -111,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -121,6 +123,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -396,31 +399,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomRight" state="frozenSplit" topLeftCell="E3" xSplit="4" ySplit="2"/>
       <selection activeCell="D1" pane="topRight" sqref="D1"/>
       <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
-      <selection activeCell="A3" pane="bottomRight" sqref="A3:XFD12"/>
+      <selection activeCell="A3" pane="bottomRight" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="13.453125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="11.6328125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="12.08984375"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="14.6328125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="22.90625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="18.6328125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="19.08984375"/>
-    <col customWidth="1" max="8" min="8" style="2" width="19.08984375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="15.1796875"/>
-    <col customWidth="1" max="10" min="10" style="2" width="15.1796875"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="16.81640625"/>
-    <col customWidth="1" max="12" min="12" style="2" width="16.81640625"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="2" width="18.54296875"/>
-    <col customWidth="1" max="14" min="14" style="2" width="8.7265625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="13.44140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="11.6640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="12.109375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="14.6640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="22.88671875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="18.6640625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="19.109375"/>
+    <col customWidth="1" max="8" min="8" style="2" width="19.109375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="15.21875"/>
+    <col customWidth="1" max="10" min="10" style="2" width="15.21875"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="16.77734375"/>
+    <col customWidth="1" max="12" min="12" style="2" width="16.77734375"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="2" width="18.5546875"/>
+    <col customWidth="1" max="14" min="14" style="2" width="8.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,6 +532,262 @@
         <is>
           <t>NEW</t>
         </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>43693</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>,D_ADDRESS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AddressDetail</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AptUnit</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>43693</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>,D_ADDRESS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AddressDetail</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AttentionLine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>43693</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>,D_ADDRESS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AddressDetail</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AptUnit</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>43693</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>,D_ADDRESS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AddressDetail</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AttentionLine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DM/maintain/monitor/Focus_Change_Log.xlsx
+++ b/DM/maintain/monitor/Focus_Change_Log.xlsx
@@ -1,83 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LiuZP\00 LiuZP\Code\Python\DM\maintain\monitor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD2BCF7-B41D-4C63-B4A0-CB458AFB02BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="17020" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10120" windowWidth="17020" xWindow="19090" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Log" sheetId="1" r:id="rId1"/>
+    <sheet name="Log" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
-  <si>
-    <t>COLUMN_TYPE</t>
-  </si>
-  <si>
-    <t>PRECISION</t>
-  </si>
-  <si>
-    <t>SCALE</t>
-  </si>
-  <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
-    <t>NULLABLE</t>
-  </si>
-  <si>
-    <t>CHANGE_DATE</t>
-  </si>
-  <si>
-    <t>IMPACT_LIST</t>
-  </si>
-  <si>
-    <t>TABLE_NAME</t>
-  </si>
-  <si>
-    <t>COLUMN_NAME</t>
-  </si>
-  <si>
-    <t>PREVIOUS</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -89,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,34 +87,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -423,102 +391,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD8"/>
+      <pane activePane="bottomRight" state="frozenSplit" topLeftCell="E3" xSplit="4" ySplit="2"/>
+      <selection activeCell="D1" pane="topRight" sqref="D1"/>
+      <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
+      <selection activeCell="A3" pane="bottomRight" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" style="2" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="13.453125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="11.6328125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="12.08984375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="14.6328125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="22.90625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="18.6328125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="19.08984375"/>
+    <col customWidth="1" max="8" min="8" style="2" width="19.08984375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="15.1796875"/>
+    <col customWidth="1" max="10" min="10" style="2" width="15.1796875"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="16.81640625"/>
+    <col customWidth="1" max="12" min="12" style="2" width="16.81640625"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="2" width="18.54296875"/>
+    <col customWidth="1" max="14" min="14" style="2" width="8.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="6"/>
+    <row r="1">
+      <c r="A1" s="3" t="n"/>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>COLUMN_TYPE</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>PRECISION</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>SCALE</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>LENGTH</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>NULLABLE</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="n"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>10</v>
+    <row customHeight="1" ht="15" r="2" s="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>CHANGE_DATE</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>IMPACT_LIST</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>TABLE_NAME</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>COLUMN_NAME</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -529,7 +539,7 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>